--- a/Code/Results/Cases/Case_3_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.501085082522707</v>
+        <v>1.038240949722478</v>
       </c>
       <c r="C2">
-        <v>0.6014049888007662</v>
+        <v>0.2665211918717034</v>
       </c>
       <c r="D2">
-        <v>0.02262448371832093</v>
+        <v>0.02380986417120567</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8647349415492158</v>
+        <v>0.9144269611472566</v>
       </c>
       <c r="G2">
-        <v>0.792052590621168</v>
+        <v>0.7683326004949862</v>
       </c>
       <c r="H2">
-        <v>0.4936235930523338</v>
+        <v>0.8140152192382573</v>
       </c>
       <c r="I2">
-        <v>0.4367326475099489</v>
+        <v>0.7720220758624876</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1792073783141461</v>
+        <v>0.2688695164919324</v>
       </c>
       <c r="M2">
-        <v>0.4220196015669657</v>
+        <v>0.2490549816902998</v>
       </c>
       <c r="N2">
-        <v>0.6781281059801696</v>
+        <v>1.351258787217532</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.169444011062637</v>
+        <v>0.944975639967879</v>
       </c>
       <c r="C3">
-        <v>0.5341256913395966</v>
+        <v>0.2450261732752779</v>
       </c>
       <c r="D3">
-        <v>0.02176686279911166</v>
+        <v>0.02346685714776697</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7841744601364127</v>
+        <v>0.9013263571936676</v>
       </c>
       <c r="G3">
-        <v>0.716139677878914</v>
+        <v>0.7556657309808656</v>
       </c>
       <c r="H3">
-        <v>0.4654839042970167</v>
+        <v>0.8133260020227056</v>
       </c>
       <c r="I3">
-        <v>0.4211364937244184</v>
+        <v>0.7748831900374213</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1656036502121054</v>
+        <v>0.2670700693394394</v>
       </c>
       <c r="M3">
-        <v>0.3679756964154137</v>
+        <v>0.2349287805085325</v>
       </c>
       <c r="N3">
-        <v>0.7200023433821485</v>
+        <v>1.368168211889422</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.966933447662598</v>
+        <v>0.8879779308421121</v>
       </c>
       <c r="C4">
-        <v>0.4928984101319429</v>
+        <v>0.2317185442680341</v>
       </c>
       <c r="D4">
-        <v>0.021241623284876</v>
+        <v>0.0232559817544491</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7364823433489107</v>
+        <v>0.8939441749435417</v>
       </c>
       <c r="G4">
-        <v>0.6713275259701561</v>
+        <v>0.7485020716354711</v>
       </c>
       <c r="H4">
-        <v>0.4492444030894944</v>
+        <v>0.8133783259870597</v>
       </c>
       <c r="I4">
-        <v>0.4126801860336116</v>
+        <v>0.7771319533533756</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1575053925022516</v>
+        <v>0.2661002671769239</v>
       </c>
       <c r="M4">
-        <v>0.3350808096934017</v>
+        <v>0.2263614891806895</v>
       </c>
       <c r="N4">
-        <v>0.7468931075410143</v>
+        <v>1.379093728034885</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.884642513978491</v>
+        <v>0.8648189441159673</v>
       </c>
       <c r="C5">
-        <v>0.4761084861662255</v>
+        <v>0.2262680288233128</v>
       </c>
       <c r="D5">
-        <v>0.02102785934940599</v>
+        <v>0.0231699898031259</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7174583290539402</v>
+        <v>0.8911018798137036</v>
       </c>
       <c r="G5">
-        <v>0.6534821387677852</v>
+        <v>0.7457366757248138</v>
       </c>
       <c r="H5">
-        <v>0.4428710289885203</v>
+        <v>0.81351910408317</v>
       </c>
       <c r="I5">
-        <v>0.4094988923711824</v>
+        <v>0.7781718646007008</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1542652530278019</v>
+        <v>0.26573905805013</v>
       </c>
       <c r="M5">
-        <v>0.3217394693848306</v>
+        <v>0.2228970803747288</v>
       </c>
       <c r="N5">
-        <v>0.7581388808537497</v>
+        <v>1.383682451433669</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.870990955627974</v>
+        <v>0.8609775441794056</v>
       </c>
       <c r="C6">
-        <v>0.4733208824768269</v>
+        <v>0.2253613114005475</v>
       </c>
       <c r="D6">
-        <v>0.02099237900163331</v>
+        <v>0.02315570763072827</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7143232465528797</v>
+        <v>0.8906399342984486</v>
       </c>
       <c r="G6">
-        <v>0.6505430245820918</v>
+        <v>0.7452867614949952</v>
       </c>
       <c r="H6">
-        <v>0.4418270225709904</v>
+        <v>0.813549691698924</v>
       </c>
       <c r="I6">
-        <v>0.4089861549648006</v>
+        <v>0.7783519955890696</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1537307387246969</v>
+        <v>0.2656811335396156</v>
       </c>
       <c r="M6">
-        <v>0.3195277410619255</v>
+        <v>0.2223234418960089</v>
       </c>
       <c r="N6">
-        <v>0.7600233454463972</v>
+        <v>1.384452646947256</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.965822757400645</v>
+        <v>0.8876653241347583</v>
       </c>
       <c r="C7">
-        <v>0.4926719457185698</v>
+        <v>0.2316451482361117</v>
       </c>
       <c r="D7">
-        <v>0.02123873934992915</v>
+        <v>0.02325482226205722</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7362241595254773</v>
+        <v>0.8939051711070221</v>
       </c>
       <c r="G7">
-        <v>0.671085219249008</v>
+        <v>0.7484641542616544</v>
       </c>
       <c r="H7">
-        <v>0.4491574815695998</v>
+        <v>0.8133797410528132</v>
       </c>
       <c r="I7">
-        <v>0.4126362317225798</v>
+        <v>0.7771454780953846</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1574614572036239</v>
+        <v>0.2660952581071285</v>
       </c>
       <c r="M7">
-        <v>0.3349006375927033</v>
+        <v>0.2263146581589481</v>
       </c>
       <c r="N7">
-        <v>0.7470436192484016</v>
+        <v>1.379155060628467</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.386473506328286</v>
+        <v>1.006027961936979</v>
       </c>
       <c r="C8">
-        <v>0.5781835851379924</v>
+        <v>0.2591324578286276</v>
       </c>
       <c r="D8">
-        <v>0.02232845649388082</v>
+        <v>0.02369165604297407</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.83656824352488</v>
+        <v>0.9097723188588844</v>
       </c>
       <c r="G8">
-        <v>0.7654819086059348</v>
+        <v>0.7638373496479289</v>
       </c>
       <c r="H8">
-        <v>0.4836951019034359</v>
+        <v>0.8136788142414844</v>
       </c>
       <c r="I8">
-        <v>0.4311122175716946</v>
+        <v>0.7729063442585584</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1744614954373276</v>
+        <v>0.2682210507381129</v>
       </c>
       <c r="M8">
-        <v>0.4033198843038335</v>
+        <v>0.2441622777525652</v>
       </c>
       <c r="N8">
-        <v>0.6923158299334631</v>
+        <v>1.356976403222683</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.222581065606391</v>
+        <v>1.240238733983801</v>
       </c>
       <c r="C9">
-        <v>0.7470312557326508</v>
+        <v>0.3121673007282482</v>
       </c>
       <c r="D9">
-        <v>0.02447949600449562</v>
+        <v>0.02454582167461794</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.049091861000278</v>
+        <v>0.9461573484679917</v>
       </c>
       <c r="G9">
-        <v>0.9666293315188454</v>
+        <v>0.7988802476060215</v>
       </c>
       <c r="H9">
-        <v>0.5604751384055788</v>
+        <v>0.8180446158427515</v>
       </c>
       <c r="I9">
-        <v>0.477043271690647</v>
+        <v>0.7685073134773148</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2100129193814766</v>
+        <v>0.2734606689013859</v>
       </c>
       <c r="M9">
-        <v>0.5402138469999613</v>
+        <v>0.2800015227454935</v>
       </c>
       <c r="N9">
-        <v>0.5947918377668202</v>
+        <v>1.317795658678744</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.847273435486954</v>
+        <v>1.413584839774728</v>
       </c>
       <c r="C10">
-        <v>0.872565557632214</v>
+        <v>0.3506092697668635</v>
       </c>
       <c r="D10">
-        <v>0.0260743143417983</v>
+        <v>0.02517148620862031</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.217372926488295</v>
+        <v>0.9761336646762686</v>
       </c>
       <c r="G10">
-        <v>1.126844162240303</v>
+        <v>0.827650302995238</v>
       </c>
       <c r="H10">
-        <v>0.6236274997812927</v>
+        <v>0.8235667856652071</v>
       </c>
       <c r="I10">
-        <v>0.5179236964153517</v>
+        <v>0.7676761197814628</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2377755731871787</v>
+        <v>0.2779629397373498</v>
       </c>
       <c r="M10">
-        <v>0.6431137821778918</v>
+        <v>0.3068438203301582</v>
       </c>
       <c r="N10">
-        <v>0.5297607922455843</v>
+        <v>1.291640745218952</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.134595697209193</v>
+        <v>1.49271964564133</v>
       </c>
       <c r="C11">
-        <v>0.9301879339698473</v>
+        <v>0.3679855639208824</v>
       </c>
       <c r="D11">
-        <v>0.0268045712446785</v>
+        <v>0.02545563034049891</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.297183718062143</v>
+        <v>0.9904822378773304</v>
       </c>
       <c r="G11">
-        <v>1.203077990134602</v>
+        <v>0.8414038843660592</v>
       </c>
       <c r="H11">
-        <v>0.6541201027217767</v>
+        <v>0.8265839911722139</v>
       </c>
       <c r="I11">
-        <v>0.5383680201475158</v>
+        <v>0.7678225613394574</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2508331961294346</v>
+        <v>0.2801529014015358</v>
       </c>
       <c r="M11">
-        <v>0.6905922109750975</v>
+        <v>0.3191660794785918</v>
       </c>
       <c r="N11">
-        <v>0.5017713953298362</v>
+        <v>1.280314176477027</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.243928743246386</v>
+        <v>1.522725541953264</v>
       </c>
       <c r="C12">
-        <v>0.9520998073755038</v>
+        <v>0.3745495749961094</v>
       </c>
       <c r="D12">
-        <v>0.02708194063551517</v>
+        <v>0.02556315265163178</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.327931210889318</v>
+        <v>0.9960185697104862</v>
       </c>
       <c r="G12">
-        <v>1.232487037621013</v>
+        <v>0.8467083917800267</v>
       </c>
       <c r="H12">
-        <v>0.6659479582741312</v>
+        <v>0.827799334705702</v>
       </c>
       <c r="I12">
-        <v>0.5464026855400874</v>
+        <v>0.7679536955148691</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2558457645233574</v>
+        <v>0.2810025677362376</v>
       </c>
       <c r="M12">
-        <v>0.7086818634500105</v>
+        <v>0.3238481745245991</v>
       </c>
       <c r="N12">
-        <v>0.4914162909306867</v>
+        <v>1.276107366668235</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.220357011589385</v>
+        <v>1.516261502203179</v>
       </c>
       <c r="C13">
-        <v>0.947376328495352</v>
+        <v>0.3731366105013194</v>
       </c>
       <c r="D13">
-        <v>0.027022164288109</v>
+        <v>0.02553999935677354</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.321284893789283</v>
+        <v>0.9948216410317485</v>
       </c>
       <c r="G13">
-        <v>1.226128216281552</v>
+        <v>0.8455616781517961</v>
       </c>
       <c r="H13">
-        <v>0.6633876608800904</v>
+        <v>0.8275343487560178</v>
       </c>
       <c r="I13">
-        <v>0.5446587938294059</v>
+        <v>0.7679220835545735</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2547630902561195</v>
+        <v>0.2808186710569061</v>
       </c>
       <c r="M13">
-        <v>0.7047807702414559</v>
+        <v>0.3228390953039266</v>
       </c>
       <c r="N13">
-        <v>0.4936353535619666</v>
+        <v>1.277009715050347</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.143579492294862</v>
+        <v>1.495187466625566</v>
       </c>
       <c r="C14">
-        <v>0.931988697319639</v>
+        <v>0.3685259101914369</v>
       </c>
       <c r="D14">
-        <v>0.02682737286685466</v>
+        <v>0.02546447785633177</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.299702473137856</v>
+        <v>0.9909356517503198</v>
       </c>
       <c r="G14">
-        <v>1.205486291366697</v>
+        <v>0.8418383556635263</v>
       </c>
       <c r="H14">
-        <v>0.6550873914254964</v>
+        <v>0.8266825184412596</v>
       </c>
       <c r="I14">
-        <v>0.539023003683738</v>
+        <v>0.7678318316561317</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2512441834785477</v>
+        <v>0.2802223957418022</v>
       </c>
       <c r="M14">
-        <v>0.6920781536177287</v>
+        <v>0.3195509598195372</v>
       </c>
       <c r="N14">
-        <v>0.5009144982234481</v>
+        <v>1.279966429122585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.096622543851026</v>
+        <v>1.482284100040772</v>
       </c>
       <c r="C15">
-        <v>0.9225757916887574</v>
+        <v>0.365699636657439</v>
       </c>
       <c r="D15">
-        <v>0.02670817138589499</v>
+        <v>0.02541820848432863</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.286552727852126</v>
+        <v>0.9885687763733841</v>
       </c>
       <c r="G15">
-        <v>1.192914807769171</v>
+        <v>0.8395702741802324</v>
       </c>
       <c r="H15">
-        <v>0.6500406787365876</v>
+        <v>0.8261702322161852</v>
       </c>
       <c r="I15">
-        <v>0.5356099036164608</v>
+        <v>0.7677864129443321</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2490977953784466</v>
+        <v>0.2798598126824743</v>
       </c>
       <c r="M15">
-        <v>0.6843122883615322</v>
+        <v>0.3175389519888228</v>
       </c>
       <c r="N15">
-        <v>0.5054054025393349</v>
+        <v>1.281788226206306</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.828566063284427</v>
+        <v>1.408418733293672</v>
       </c>
       <c r="C16">
-        <v>0.868811627463117</v>
+        <v>0.3494714487771944</v>
       </c>
       <c r="D16">
-        <v>0.02602669868447194</v>
+        <v>0.02515290643421153</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.212227376171754</v>
+        <v>0.9752103192452921</v>
       </c>
       <c r="G16">
-        <v>1.121934465869828</v>
+        <v>0.8267649226436617</v>
       </c>
       <c r="H16">
-        <v>0.6216725136189041</v>
+        <v>0.8233797821191615</v>
       </c>
       <c r="I16">
-        <v>0.5166270580996368</v>
+        <v>0.7676771261850774</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2369313751198519</v>
+        <v>0.2778226730959261</v>
       </c>
       <c r="M16">
-        <v>0.6400256171353433</v>
+        <v>0.3060407664008764</v>
       </c>
       <c r="N16">
-        <v>0.5316232615445013</v>
+        <v>1.292392474063181</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.664981220669972</v>
+        <v>1.363175538603116</v>
       </c>
       <c r="C17">
-        <v>0.8359730478079541</v>
+        <v>0.3394874905648635</v>
       </c>
       <c r="D17">
-        <v>0.0256099587822689</v>
+        <v>0.02499002458195321</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.167504336056453</v>
+        <v>0.9671980516108931</v>
       </c>
       <c r="G17">
-        <v>1.079289040283072</v>
+        <v>0.8190802177813197</v>
       </c>
       <c r="H17">
-        <v>0.6047400788925756</v>
+        <v>0.8217974199774289</v>
       </c>
       <c r="I17">
-        <v>0.5054735006942366</v>
+        <v>0.7677446107900252</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2295817102654354</v>
+        <v>0.2766092699731075</v>
       </c>
       <c r="M17">
-        <v>0.6130383345495432</v>
+        <v>0.299015490561743</v>
       </c>
       <c r="N17">
-        <v>0.5481253015056353</v>
+        <v>1.299044295647239</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.571182652387961</v>
+        <v>1.337179140095259</v>
       </c>
       <c r="C18">
-        <v>0.8171326198307725</v>
+        <v>0.3337345217053667</v>
       </c>
       <c r="D18">
-        <v>0.0253706992536209</v>
+        <v>0.02489629516572478</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.142083917403824</v>
+        <v>0.9626566169910546</v>
       </c>
       <c r="G18">
-        <v>1.055072125261944</v>
+        <v>0.814722826372261</v>
       </c>
       <c r="H18">
-        <v>0.5951652811587991</v>
+        <v>0.8209348242268675</v>
       </c>
       <c r="I18">
-        <v>0.4992304146017048</v>
+        <v>0.767832784832251</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2253942767545709</v>
+        <v>0.2759247061328978</v>
       </c>
       <c r="M18">
-        <v>0.5975779705354469</v>
+        <v>0.2949852456871795</v>
       </c>
       <c r="N18">
-        <v>0.5577658783188255</v>
+        <v>1.302924024456892</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.539471807697169</v>
+        <v>1.328381746940693</v>
       </c>
       <c r="C19">
-        <v>0.810761225121837</v>
+        <v>0.331784869710475</v>
       </c>
       <c r="D19">
-        <v>0.02528976110273362</v>
+        <v>0.02486455269477617</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.133527423003912</v>
+        <v>0.9611304613132745</v>
       </c>
       <c r="G19">
-        <v>1.04692449872806</v>
+        <v>0.813258231142413</v>
       </c>
       <c r="H19">
-        <v>0.5919508448424153</v>
+        <v>0.8206509239931705</v>
       </c>
       <c r="I19">
-        <v>0.4971453898163603</v>
+        <v>0.7678711088689738</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2239831514708897</v>
+        <v>0.2756952187798305</v>
       </c>
       <c r="M19">
-        <v>0.5923535873112513</v>
+        <v>0.2936224824389129</v>
       </c>
       <c r="N19">
-        <v>0.5610551813331206</v>
+        <v>1.304246865892537</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.682364436337195</v>
+        <v>1.367989038961753</v>
       </c>
       <c r="C20">
-        <v>0.8394637393666642</v>
+        <v>0.3405513827767948</v>
       </c>
       <c r="D20">
-        <v>0.02565427507381912</v>
+        <v>0.02500736825852812</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.172233419609597</v>
+        <v>0.9680440328329638</v>
       </c>
       <c r="G20">
-        <v>1.083796057730467</v>
+        <v>0.8198917798635819</v>
       </c>
       <c r="H20">
-        <v>0.606525372242686</v>
+        <v>0.821960944098862</v>
       </c>
       <c r="I20">
-        <v>0.5066428103789491</v>
+        <v>0.7677323166931345</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2303599208849505</v>
+        <v>0.2767370569356302</v>
       </c>
       <c r="M20">
-        <v>0.6159046588040837</v>
+        <v>0.2997622565020137</v>
       </c>
       <c r="N20">
-        <v>0.5463531034543152</v>
+        <v>1.29833063113179</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.166115861294145</v>
+        <v>1.501376362704491</v>
       </c>
       <c r="C21">
-        <v>0.9365057870186604</v>
+        <v>0.3698806195095869</v>
       </c>
       <c r="D21">
-        <v>0.02688456379126691</v>
+        <v>0.02548666250815046</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.306027034638362</v>
+        <v>0.9920742665942441</v>
       </c>
       <c r="G21">
-        <v>1.211534146580618</v>
+        <v>0.8429293670149036</v>
       </c>
       <c r="H21">
-        <v>0.6575175266715405</v>
+        <v>0.826930744827024</v>
       </c>
       <c r="I21">
-        <v>0.5406701956859905</v>
+        <v>0.7678562849014696</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2522758748714864</v>
+        <v>0.2803969834581039</v>
       </c>
       <c r="M21">
-        <v>0.6958060968151045</v>
+        <v>0.3205163337232122</v>
       </c>
       <c r="N21">
-        <v>0.4987696946989679</v>
+        <v>1.279095735319626</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.48540805453365</v>
+        <v>1.588781162848989</v>
       </c>
       <c r="C22">
-        <v>1.000471192700132</v>
+        <v>0.388955612891408</v>
       </c>
       <c r="D22">
-        <v>0.02769359455683329</v>
+        <v>0.0257994567757045</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.396558154192306</v>
+        <v>1.008379033579018</v>
       </c>
       <c r="G22">
-        <v>1.298202829548927</v>
+        <v>0.8585474778577407</v>
       </c>
       <c r="H22">
-        <v>0.6924960450135416</v>
+        <v>0.8306031644994505</v>
       </c>
       <c r="I22">
-        <v>0.5646303723970618</v>
+        <v>0.7683785423682608</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2669985030946407</v>
+        <v>0.282907709722366</v>
       </c>
       <c r="M22">
-        <v>0.7486786367360736</v>
+        <v>0.3341730790075061</v>
       </c>
       <c r="N22">
-        <v>0.4691004348915087</v>
+        <v>1.267004489868665</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.314681524838079</v>
+        <v>1.542110942768375</v>
       </c>
       <c r="C23">
-        <v>0.9662758063903141</v>
+        <v>0.3787834823656908</v>
       </c>
       <c r="D23">
-        <v>0.02726128894508051</v>
+        <v>0.0256325568301925</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.347937384467414</v>
+        <v>0.9996218664388721</v>
       </c>
       <c r="G23">
-        <v>1.251633804661481</v>
+        <v>0.8501602147161691</v>
       </c>
       <c r="H23">
-        <v>0.6736665023406658</v>
+        <v>0.828604243992686</v>
       </c>
       <c r="I23">
-        <v>0.5516752561029961</v>
+        <v>0.7680593478237583</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2591019861967254</v>
+        <v>0.281556829613308</v>
       </c>
       <c r="M23">
-        <v>0.7203947629755305</v>
+        <v>0.3268757691912967</v>
       </c>
       <c r="N23">
-        <v>0.4847994981911299</v>
+        <v>1.273413857880609</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.674504716195827</v>
+        <v>1.365812810170155</v>
       </c>
       <c r="C24">
-        <v>0.8378854778068785</v>
+        <v>0.3400704377866361</v>
       </c>
       <c r="D24">
-        <v>0.02563423866234515</v>
+        <v>0.02499952745001366</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.170094497315716</v>
+        <v>0.9676613625148747</v>
       </c>
       <c r="G24">
-        <v>1.081757503524415</v>
+        <v>0.8195246837732952</v>
       </c>
       <c r="H24">
-        <v>0.6057177451456539</v>
+        <v>0.8218868680557989</v>
       </c>
       <c r="I24">
-        <v>0.5061136403414963</v>
+        <v>0.7677377210642078</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.230007974017127</v>
+        <v>0.2766792438380179</v>
       </c>
       <c r="M24">
-        <v>0.6146086234206933</v>
+        <v>0.2994246165752017</v>
       </c>
       <c r="N24">
-        <v>0.5471538376895015</v>
+        <v>1.298653105957129</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.994840437208211</v>
+        <v>1.17665453309786</v>
       </c>
       <c r="C25">
-        <v>0.7011534209477475</v>
+        <v>0.2979122197349398</v>
       </c>
       <c r="D25">
-        <v>0.02389552276360973</v>
+        <v>0.02431505175663062</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9896625696029417</v>
+        <v>0.9357468096249164</v>
       </c>
       <c r="G25">
-        <v>0.9102354982025673</v>
+        <v>0.7888720009531056</v>
       </c>
       <c r="H25">
-        <v>0.5386146314858138</v>
+        <v>0.8164578539402925</v>
       </c>
       <c r="I25">
-        <v>0.4634589499043713</v>
+        <v>0.769276836859774</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2001293001386912</v>
+        <v>0.2719285784833474</v>
       </c>
       <c r="M25">
-        <v>0.5028234600997052</v>
+        <v>0.2702162189359427</v>
       </c>
       <c r="N25">
-        <v>0.6200621283297298</v>
+        <v>1.327933243004676</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_90/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_90/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.038240949722478</v>
+        <v>2.501085082522707</v>
       </c>
       <c r="C2">
-        <v>0.2665211918717034</v>
+        <v>0.6014049888006525</v>
       </c>
       <c r="D2">
-        <v>0.02380986417120567</v>
+        <v>0.02262448371830672</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9144269611472566</v>
+        <v>0.86473494154923</v>
       </c>
       <c r="G2">
-        <v>0.7683326004949862</v>
+        <v>0.7920525906212106</v>
       </c>
       <c r="H2">
-        <v>0.8140152192382573</v>
+        <v>0.493623593052348</v>
       </c>
       <c r="I2">
-        <v>0.7720220758624876</v>
+        <v>0.4367326475099489</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2688695164919324</v>
+        <v>0.1792073783143238</v>
       </c>
       <c r="M2">
-        <v>0.2490549816902998</v>
+        <v>0.4220196015669941</v>
       </c>
       <c r="N2">
-        <v>1.351258787217532</v>
+        <v>0.6781281059801607</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.944975639967879</v>
+        <v>2.169444011062808</v>
       </c>
       <c r="C3">
-        <v>0.2450261732752779</v>
+        <v>0.534125691339824</v>
       </c>
       <c r="D3">
-        <v>0.02346685714776697</v>
+        <v>0.02176686279928575</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9013263571936676</v>
+        <v>0.7841744601363985</v>
       </c>
       <c r="G3">
-        <v>0.7556657309808656</v>
+        <v>0.7161396778789282</v>
       </c>
       <c r="H3">
-        <v>0.8133260020227056</v>
+        <v>0.4654839042970167</v>
       </c>
       <c r="I3">
-        <v>0.7748831900374213</v>
+        <v>0.4211364937244255</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2670700693394394</v>
+        <v>0.1656036502121552</v>
       </c>
       <c r="M3">
-        <v>0.2349287805085325</v>
+        <v>0.3679756964154137</v>
       </c>
       <c r="N3">
-        <v>1.368168211889422</v>
+        <v>0.7200023433821308</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8879779308421121</v>
+        <v>1.966933447662399</v>
       </c>
       <c r="C4">
-        <v>0.2317185442680341</v>
+        <v>0.4928984101319998</v>
       </c>
       <c r="D4">
-        <v>0.0232559817544491</v>
+        <v>0.02124162328470192</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8939441749435417</v>
+        <v>0.7364823433489107</v>
       </c>
       <c r="G4">
-        <v>0.7485020716354711</v>
+        <v>0.6713275259700993</v>
       </c>
       <c r="H4">
-        <v>0.8133783259870597</v>
+        <v>0.4492444030894944</v>
       </c>
       <c r="I4">
-        <v>0.7771319533533756</v>
+        <v>0.4126801860336258</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2661002671769239</v>
+        <v>0.1575053925022871</v>
       </c>
       <c r="M4">
-        <v>0.2263614891806895</v>
+        <v>0.3350808096934017</v>
       </c>
       <c r="N4">
-        <v>1.379093728034885</v>
+        <v>0.7468931075410303</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8648189441159673</v>
+        <v>1.884642513978406</v>
       </c>
       <c r="C5">
-        <v>0.2262680288233128</v>
+        <v>0.4761084861665665</v>
       </c>
       <c r="D5">
-        <v>0.0231699898031259</v>
+        <v>0.02102785934945217</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8911018798137036</v>
+        <v>0.7174583290539545</v>
       </c>
       <c r="G5">
-        <v>0.7457366757248138</v>
+        <v>0.6534821387678562</v>
       </c>
       <c r="H5">
-        <v>0.81351910408317</v>
+        <v>0.4428710289884066</v>
       </c>
       <c r="I5">
-        <v>0.7781718646007008</v>
+        <v>0.4094988923711824</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.26573905805013</v>
+        <v>0.154265253027809</v>
       </c>
       <c r="M5">
-        <v>0.2228970803747288</v>
+        <v>0.3217394693848163</v>
       </c>
       <c r="N5">
-        <v>1.383682451433669</v>
+        <v>0.7581388808538083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8609775441794056</v>
+        <v>1.870990955628031</v>
       </c>
       <c r="C6">
-        <v>0.2253613114005475</v>
+        <v>0.4733208824767985</v>
       </c>
       <c r="D6">
-        <v>0.02315570763072827</v>
+        <v>0.02099237900163331</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8906399342984486</v>
+        <v>0.7143232465528655</v>
       </c>
       <c r="G6">
-        <v>0.7452867614949952</v>
+        <v>0.6505430245820776</v>
       </c>
       <c r="H6">
-        <v>0.813549691698924</v>
+        <v>0.441827022570962</v>
       </c>
       <c r="I6">
-        <v>0.7783519955890696</v>
+        <v>0.4089861549647864</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2656811335396156</v>
+        <v>0.1537307387246827</v>
       </c>
       <c r="M6">
-        <v>0.2223234418960089</v>
+        <v>0.3195277410619468</v>
       </c>
       <c r="N6">
-        <v>1.384452646947256</v>
+        <v>0.7600233454463741</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8876653241347583</v>
+        <v>1.965822757400815</v>
       </c>
       <c r="C7">
-        <v>0.2316451482361117</v>
+        <v>0.4926719457185129</v>
       </c>
       <c r="D7">
-        <v>0.02325482226205722</v>
+        <v>0.02123873934997889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8939051711070221</v>
+        <v>0.7362241595254773</v>
       </c>
       <c r="G7">
-        <v>0.7484641542616544</v>
+        <v>0.671085219249008</v>
       </c>
       <c r="H7">
-        <v>0.8133797410528132</v>
+        <v>0.4491574815695998</v>
       </c>
       <c r="I7">
-        <v>0.7771454780953846</v>
+        <v>0.4126362317225656</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2660952581071285</v>
+        <v>0.1574614572035955</v>
       </c>
       <c r="M7">
-        <v>0.2263146581589481</v>
+        <v>0.3349006375927175</v>
       </c>
       <c r="N7">
-        <v>1.379155060628467</v>
+        <v>0.7470436192484016</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.006027961936979</v>
+        <v>2.386473506328002</v>
       </c>
       <c r="C8">
-        <v>0.2591324578286276</v>
+        <v>0.5781835851378787</v>
       </c>
       <c r="D8">
-        <v>0.02369165604297407</v>
+        <v>0.02232845649399451</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9097723188588844</v>
+        <v>0.83656824352488</v>
       </c>
       <c r="G8">
-        <v>0.7638373496479289</v>
+        <v>0.7654819086059064</v>
       </c>
       <c r="H8">
-        <v>0.8136788142414844</v>
+        <v>0.4836951019035496</v>
       </c>
       <c r="I8">
-        <v>0.7729063442585584</v>
+        <v>0.4311122175716804</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2682210507381129</v>
+        <v>0.1744614954373702</v>
       </c>
       <c r="M8">
-        <v>0.2441622777525652</v>
+        <v>0.4033198843038335</v>
       </c>
       <c r="N8">
-        <v>1.356976403222683</v>
+        <v>0.6923158299335128</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.240238733983801</v>
+        <v>3.222581065606335</v>
       </c>
       <c r="C9">
-        <v>0.3121673007282482</v>
+        <v>0.7470312557324519</v>
       </c>
       <c r="D9">
-        <v>0.02454582167461794</v>
+        <v>0.02447949600443522</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9461573484679917</v>
+        <v>1.049091861000264</v>
       </c>
       <c r="G9">
-        <v>0.7988802476060215</v>
+        <v>0.9666293315188312</v>
       </c>
       <c r="H9">
-        <v>0.8180446158427515</v>
+        <v>0.560475138405593</v>
       </c>
       <c r="I9">
-        <v>0.7685073134773148</v>
+        <v>0.477043271690647</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2734606689013859</v>
+        <v>0.2100129193813913</v>
       </c>
       <c r="M9">
-        <v>0.2800015227454935</v>
+        <v>0.5402138469999613</v>
       </c>
       <c r="N9">
-        <v>1.317795658678744</v>
+        <v>0.5947918377668309</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.413584839774728</v>
+        <v>3.847273435487011</v>
       </c>
       <c r="C10">
-        <v>0.3506092697668635</v>
+        <v>0.8725655576321856</v>
       </c>
       <c r="D10">
-        <v>0.02517148620862031</v>
+        <v>0.02607431434157093</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9761336646762686</v>
+        <v>1.217372926488295</v>
       </c>
       <c r="G10">
-        <v>0.827650302995238</v>
+        <v>1.126844162240303</v>
       </c>
       <c r="H10">
-        <v>0.8235667856652071</v>
+        <v>0.6236274997814064</v>
       </c>
       <c r="I10">
-        <v>0.7676761197814628</v>
+        <v>0.5179236964153375</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2779629397373498</v>
+        <v>0.2377755731871787</v>
       </c>
       <c r="M10">
-        <v>0.3068438203301582</v>
+        <v>0.6431137821778847</v>
       </c>
       <c r="N10">
-        <v>1.291640745218952</v>
+        <v>0.5297607922455914</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.49271964564133</v>
+        <v>4.134595697209079</v>
       </c>
       <c r="C11">
-        <v>0.3679855639208824</v>
+        <v>0.9301879339699326</v>
       </c>
       <c r="D11">
-        <v>0.02545563034049891</v>
+        <v>0.02680457124466784</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9904822378773304</v>
+        <v>1.297183718062115</v>
       </c>
       <c r="G11">
-        <v>0.8414038843660592</v>
+        <v>1.203077990134688</v>
       </c>
       <c r="H11">
-        <v>0.8265839911722139</v>
+        <v>0.6541201027217767</v>
       </c>
       <c r="I11">
-        <v>0.7678225613394574</v>
+        <v>0.5383680201475087</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2801529014015358</v>
+        <v>0.250833196129463</v>
       </c>
       <c r="M11">
-        <v>0.3191660794785918</v>
+        <v>0.6905922109750833</v>
       </c>
       <c r="N11">
-        <v>1.280314176477027</v>
+        <v>0.5017713953298184</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.522725541953264</v>
+        <v>4.243928743246443</v>
       </c>
       <c r="C12">
-        <v>0.3745495749961094</v>
+        <v>0.9520998073756459</v>
       </c>
       <c r="D12">
-        <v>0.02556315265163178</v>
+        <v>0.02708194063551517</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9960185697104862</v>
+        <v>1.327931210889332</v>
       </c>
       <c r="G12">
-        <v>0.8467083917800267</v>
+        <v>1.232487037621098</v>
       </c>
       <c r="H12">
-        <v>0.827799334705702</v>
+        <v>0.6659479582740175</v>
       </c>
       <c r="I12">
-        <v>0.7679536955148691</v>
+        <v>0.5464026855400803</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2810025677362376</v>
+        <v>0.2558457645233716</v>
       </c>
       <c r="M12">
-        <v>0.3238481745245991</v>
+        <v>0.7086818634499963</v>
       </c>
       <c r="N12">
-        <v>1.276107366668235</v>
+        <v>0.4914162909306867</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.516261502203179</v>
+        <v>4.220357011589556</v>
       </c>
       <c r="C13">
-        <v>0.3731366105013194</v>
+        <v>0.9473763284954089</v>
       </c>
       <c r="D13">
-        <v>0.02553999935677354</v>
+        <v>0.02702216428807347</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.9948216410317485</v>
+        <v>1.321284893789283</v>
       </c>
       <c r="G13">
-        <v>0.8455616781517961</v>
+        <v>1.226128216281552</v>
       </c>
       <c r="H13">
-        <v>0.8275343487560178</v>
+        <v>0.6633876608800904</v>
       </c>
       <c r="I13">
-        <v>0.7679220835545735</v>
+        <v>0.5446587938294059</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2808186710569061</v>
+        <v>0.2547630902561053</v>
       </c>
       <c r="M13">
-        <v>0.3228390953039266</v>
+        <v>0.7047807702414488</v>
       </c>
       <c r="N13">
-        <v>1.277009715050347</v>
+        <v>0.493635353561892</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.495187466625566</v>
+        <v>4.143579492295032</v>
       </c>
       <c r="C14">
-        <v>0.3685259101914369</v>
+        <v>0.9319886973197242</v>
       </c>
       <c r="D14">
-        <v>0.02546447785633177</v>
+        <v>0.0268273728667765</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9909356517503198</v>
+        <v>1.299702473137842</v>
       </c>
       <c r="G14">
-        <v>0.8418383556635263</v>
+        <v>1.205486291366753</v>
       </c>
       <c r="H14">
-        <v>0.8266825184412596</v>
+        <v>0.6550873914253827</v>
       </c>
       <c r="I14">
-        <v>0.7678318316561317</v>
+        <v>0.5390230036837522</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2802223957418022</v>
+        <v>0.2512441834784909</v>
       </c>
       <c r="M14">
-        <v>0.3195509598195372</v>
+        <v>0.6920781536177358</v>
       </c>
       <c r="N14">
-        <v>1.279966429122585</v>
+        <v>0.5009144982234339</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.482284100040772</v>
+        <v>4.096622543851026</v>
       </c>
       <c r="C15">
-        <v>0.365699636657439</v>
+        <v>0.9225757916887574</v>
       </c>
       <c r="D15">
-        <v>0.02541820848432863</v>
+        <v>0.02670817138581327</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9885687763733841</v>
+        <v>1.286552727852111</v>
       </c>
       <c r="G15">
-        <v>0.8395702741802324</v>
+        <v>1.192914807769114</v>
       </c>
       <c r="H15">
-        <v>0.8261702322161852</v>
+        <v>0.6500406787364739</v>
       </c>
       <c r="I15">
-        <v>0.7677864129443321</v>
+        <v>0.5356099036164466</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2798598126824743</v>
+        <v>0.2490977953783755</v>
       </c>
       <c r="M15">
-        <v>0.3175389519888228</v>
+        <v>0.6843122883615251</v>
       </c>
       <c r="N15">
-        <v>1.281788226206306</v>
+        <v>0.5054054025393881</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.408418733293672</v>
+        <v>3.82856606328437</v>
       </c>
       <c r="C16">
-        <v>0.3494714487771944</v>
+        <v>0.8688116274632876</v>
       </c>
       <c r="D16">
-        <v>0.02515290643421153</v>
+        <v>0.02602669868453944</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9752103192452921</v>
+        <v>1.212227376171739</v>
       </c>
       <c r="G16">
-        <v>0.8267649226436617</v>
+        <v>1.121934465869856</v>
       </c>
       <c r="H16">
-        <v>0.8233797821191615</v>
+        <v>0.621672513618762</v>
       </c>
       <c r="I16">
-        <v>0.7676771261850774</v>
+        <v>0.5166270580996155</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2778226730959261</v>
+        <v>0.236931375119795</v>
       </c>
       <c r="M16">
-        <v>0.3060407664008764</v>
+        <v>0.6400256171353504</v>
       </c>
       <c r="N16">
-        <v>1.292392474063181</v>
+        <v>0.5316232615445049</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.363175538603116</v>
+        <v>3.664981220669858</v>
       </c>
       <c r="C17">
-        <v>0.3394874905648635</v>
+        <v>0.8359730478079825</v>
       </c>
       <c r="D17">
-        <v>0.02499002458195321</v>
+        <v>0.02560995878214811</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9671980516108931</v>
+        <v>1.167504336056481</v>
       </c>
       <c r="G17">
-        <v>0.8190802177813197</v>
+        <v>1.079289040283072</v>
       </c>
       <c r="H17">
-        <v>0.8217974199774289</v>
+        <v>0.6047400788925756</v>
       </c>
       <c r="I17">
-        <v>0.7677446107900252</v>
+        <v>0.505473500694265</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2766092699731075</v>
+        <v>0.2295817102653075</v>
       </c>
       <c r="M17">
-        <v>0.299015490561743</v>
+        <v>0.6130383345495574</v>
       </c>
       <c r="N17">
-        <v>1.299044295647239</v>
+        <v>0.5481253015055678</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.337179140095259</v>
+        <v>3.571182652387904</v>
       </c>
       <c r="C18">
-        <v>0.3337345217053667</v>
+        <v>0.8171326198306303</v>
       </c>
       <c r="D18">
-        <v>0.02489629516572478</v>
+        <v>0.02537069925350721</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9626566169910546</v>
+        <v>1.142083917403838</v>
       </c>
       <c r="G18">
-        <v>0.814722826372261</v>
+        <v>1.055072125261859</v>
       </c>
       <c r="H18">
-        <v>0.8209348242268675</v>
+        <v>0.5951652811587991</v>
       </c>
       <c r="I18">
-        <v>0.767832784832251</v>
+        <v>0.4992304146017048</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2759247061328978</v>
+        <v>0.2253942767545709</v>
       </c>
       <c r="M18">
-        <v>0.2949852456871795</v>
+        <v>0.5975779705354398</v>
       </c>
       <c r="N18">
-        <v>1.302924024456892</v>
+        <v>0.5577658783188237</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.328381746940693</v>
+        <v>3.539471807697225</v>
       </c>
       <c r="C19">
-        <v>0.331784869710475</v>
+        <v>0.8107612251217517</v>
       </c>
       <c r="D19">
-        <v>0.02486455269477617</v>
+        <v>0.02528976110273362</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.9611304613132745</v>
+        <v>1.133527423003912</v>
       </c>
       <c r="G19">
-        <v>0.813258231142413</v>
+        <v>1.046924498728075</v>
       </c>
       <c r="H19">
-        <v>0.8206509239931705</v>
+        <v>0.5919508448424153</v>
       </c>
       <c r="I19">
-        <v>0.7678711088689738</v>
+        <v>0.4971453898163674</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2756952187798305</v>
+        <v>0.223983151470776</v>
       </c>
       <c r="M19">
-        <v>0.2936224824389129</v>
+        <v>0.5923535873112584</v>
       </c>
       <c r="N19">
-        <v>1.304246865892537</v>
+        <v>0.5610551813331188</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.367989038961753</v>
+        <v>3.682364436337252</v>
       </c>
       <c r="C20">
-        <v>0.3405513827767948</v>
+        <v>0.8394637393665221</v>
       </c>
       <c r="D20">
-        <v>0.02500736825852812</v>
+        <v>0.02565427507381557</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9680440328329638</v>
+        <v>1.172233419609583</v>
       </c>
       <c r="G20">
-        <v>0.8198917798635819</v>
+        <v>1.083796057730524</v>
       </c>
       <c r="H20">
-        <v>0.821960944098862</v>
+        <v>0.606525372242686</v>
       </c>
       <c r="I20">
-        <v>0.7677323166931345</v>
+        <v>0.5066428103789491</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2767370569356302</v>
+        <v>0.2303599208849221</v>
       </c>
       <c r="M20">
-        <v>0.2997622565020137</v>
+        <v>0.6159046588040624</v>
       </c>
       <c r="N20">
-        <v>1.29833063113179</v>
+        <v>0.5463531034542441</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.501376362704491</v>
+        <v>4.166115861294088</v>
       </c>
       <c r="C21">
-        <v>0.3698806195095869</v>
+        <v>0.9365057870182625</v>
       </c>
       <c r="D21">
-        <v>0.02548666250815046</v>
+        <v>0.02688456379106441</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9920742665942441</v>
+        <v>1.306027034638348</v>
       </c>
       <c r="G21">
-        <v>0.8429293670149036</v>
+        <v>1.211534146580675</v>
       </c>
       <c r="H21">
-        <v>0.826930744827024</v>
+        <v>0.6575175266715405</v>
       </c>
       <c r="I21">
-        <v>0.7678562849014696</v>
+        <v>0.5406701956860118</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2803969834581039</v>
+        <v>0.2522758748714438</v>
       </c>
       <c r="M21">
-        <v>0.3205163337232122</v>
+        <v>0.6958060968151116</v>
       </c>
       <c r="N21">
-        <v>1.279095735319626</v>
+        <v>0.4987696946989644</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.588781162848989</v>
+        <v>4.485408054533593</v>
       </c>
       <c r="C22">
-        <v>0.388955612891408</v>
+        <v>1.000471192700104</v>
       </c>
       <c r="D22">
-        <v>0.0257994567757045</v>
+        <v>0.02769359455691855</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.008379033579018</v>
+        <v>1.396558154192292</v>
       </c>
       <c r="G22">
-        <v>0.8585474778577407</v>
+        <v>1.29820282954887</v>
       </c>
       <c r="H22">
-        <v>0.8306031644994505</v>
+        <v>0.6924960450135131</v>
       </c>
       <c r="I22">
-        <v>0.7683785423682608</v>
+        <v>0.5646303723970618</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.282907709722366</v>
+        <v>0.2669985030945412</v>
       </c>
       <c r="M22">
-        <v>0.3341730790075061</v>
+        <v>0.7486786367360452</v>
       </c>
       <c r="N22">
-        <v>1.267004489868665</v>
+        <v>0.4691004348915691</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.542110942768375</v>
+        <v>4.314681524838136</v>
       </c>
       <c r="C23">
-        <v>0.3787834823656908</v>
+        <v>0.9662758063905699</v>
       </c>
       <c r="D23">
-        <v>0.0256325568301925</v>
+        <v>0.02726128894485313</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9996218664388721</v>
+        <v>1.347937384467414</v>
       </c>
       <c r="G23">
-        <v>0.8501602147161691</v>
+        <v>1.251633804661509</v>
       </c>
       <c r="H23">
-        <v>0.828604243992686</v>
+        <v>0.6736665023406658</v>
       </c>
       <c r="I23">
-        <v>0.7680593478237583</v>
+        <v>0.5516752561029961</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.281556829613308</v>
+        <v>0.2591019861967823</v>
       </c>
       <c r="M23">
-        <v>0.3268757691912967</v>
+        <v>0.7203947629755234</v>
       </c>
       <c r="N23">
-        <v>1.273413857880609</v>
+        <v>0.4847994981911192</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.365812810170155</v>
+        <v>3.674504716195884</v>
       </c>
       <c r="C24">
-        <v>0.3400704377866361</v>
+        <v>0.8378854778067932</v>
       </c>
       <c r="D24">
-        <v>0.02499952745001366</v>
+        <v>0.02563423866240555</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9676613625148747</v>
+        <v>1.170094497315702</v>
       </c>
       <c r="G24">
-        <v>0.8195246837732952</v>
+        <v>1.081757503524415</v>
       </c>
       <c r="H24">
-        <v>0.8218868680557989</v>
+        <v>0.6057177451456823</v>
       </c>
       <c r="I24">
-        <v>0.7677377210642078</v>
+        <v>0.5061136403415034</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2766792438380179</v>
+        <v>0.230007974017127</v>
       </c>
       <c r="M24">
-        <v>0.2994246165752017</v>
+        <v>0.6146086234207004</v>
       </c>
       <c r="N24">
-        <v>1.298653105957129</v>
+        <v>0.5471538376895353</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.17665453309786</v>
+        <v>2.994840437208381</v>
       </c>
       <c r="C25">
-        <v>0.2979122197349398</v>
+        <v>0.7011534209475769</v>
       </c>
       <c r="D25">
-        <v>0.02431505175663062</v>
+        <v>0.02389552276359908</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9357468096249164</v>
+        <v>0.989662569602956</v>
       </c>
       <c r="G25">
-        <v>0.7888720009531056</v>
+        <v>0.9102354982025815</v>
       </c>
       <c r="H25">
-        <v>0.8164578539402925</v>
+        <v>0.5386146314858138</v>
       </c>
       <c r="I25">
-        <v>0.769276836859774</v>
+        <v>0.4634589499043926</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2719285784833474</v>
+        <v>0.2001293001386841</v>
       </c>
       <c r="M25">
-        <v>0.2702162189359427</v>
+        <v>0.5028234600997195</v>
       </c>
       <c r="N25">
-        <v>1.327933243004676</v>
+        <v>0.6200621283297121</v>
       </c>
       <c r="O25">
         <v>0</v>
